--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H2">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>1758.652546892427</v>
+        <v>19729.18211711284</v>
       </c>
       <c r="R2">
-        <v>1758.652546892427</v>
+        <v>177562.6390540156</v>
       </c>
       <c r="S2">
-        <v>0.05332947345282707</v>
+        <v>0.2958481822698132</v>
       </c>
       <c r="T2">
-        <v>0.05332947345282707</v>
+        <v>0.2958481822698132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H3">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>5.425241387395531</v>
+        <v>62.311627266816</v>
       </c>
       <c r="R3">
-        <v>5.425241387395531</v>
+        <v>560.804645401344</v>
       </c>
       <c r="S3">
-        <v>0.0001645153086410002</v>
+        <v>0.0009343915805395473</v>
       </c>
       <c r="T3">
-        <v>0.0001645153086410002</v>
+        <v>0.0009343915805395473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H4">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>47.45032667735888</v>
+        <v>374.539074704496</v>
       </c>
       <c r="R4">
-        <v>47.45032667735888</v>
+        <v>3370.851672340464</v>
       </c>
       <c r="S4">
-        <v>0.001438886232155195</v>
+        <v>0.005616386111831295</v>
       </c>
       <c r="T4">
-        <v>0.001438886232155195</v>
+        <v>0.005616386111831295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H5">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J5">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>23497.06673176568</v>
+        <v>35324.92394767659</v>
       </c>
       <c r="R5">
-        <v>23497.06673176568</v>
+        <v>317924.3155290894</v>
       </c>
       <c r="S5">
-        <v>0.7125263024269526</v>
+        <v>0.5297135216606172</v>
       </c>
       <c r="T5">
-        <v>0.7125263024269526</v>
+        <v>0.5297135216606171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H6">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J6">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>72.48575572293947</v>
+        <v>111.5684107526684</v>
       </c>
       <c r="R6">
-        <v>72.48575572293947</v>
+        <v>1004.115696774016</v>
       </c>
       <c r="S6">
-        <v>0.002198061915280108</v>
+        <v>0.001673019759459705</v>
       </c>
       <c r="T6">
-        <v>0.002198061915280108</v>
+        <v>0.001673019759459705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H7">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J7">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>633.9759916488958</v>
+        <v>670.608860054744</v>
       </c>
       <c r="R7">
-        <v>633.9759916488958</v>
+        <v>6035.479740492696</v>
       </c>
       <c r="S7">
-        <v>0.01922472172010994</v>
+        <v>0.01005608905039907</v>
       </c>
       <c r="T7">
-        <v>0.01922472172010994</v>
+        <v>0.01005608905039907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H8">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>6758.853909010941</v>
+        <v>10188.12267693652</v>
       </c>
       <c r="R8">
-        <v>6758.853909010941</v>
+        <v>91693.10409242869</v>
       </c>
       <c r="S8">
-        <v>0.2049558457405646</v>
+        <v>0.1527755969214308</v>
       </c>
       <c r="T8">
-        <v>0.2049558457405646</v>
+        <v>0.1527755969214308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H9">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>20.85028905983733</v>
+        <v>32.17763914517334</v>
       </c>
       <c r="R9">
-        <v>20.85028905983733</v>
+        <v>289.5987523065601</v>
       </c>
       <c r="S9">
-        <v>0.0006322652754037038</v>
+        <v>0.0004825185349460714</v>
       </c>
       <c r="T9">
-        <v>0.0006322652754037038</v>
+        <v>0.0004825185349460714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H10">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>182.3611073795182</v>
+        <v>193.4114662100401</v>
       </c>
       <c r="R10">
-        <v>182.3611073795182</v>
+        <v>1740.703195890361</v>
       </c>
       <c r="S10">
-        <v>0.005529927928065619</v>
+        <v>0.002900294110963042</v>
       </c>
       <c r="T10">
-        <v>0.005529927928065619</v>
+        <v>0.002900294110963042</v>
       </c>
     </row>
   </sheetData>
